--- a/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>9.774280485022391</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-12.08767932894449</v>
+        <v>-12.08767932894448</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.54156580016967</v>
@@ -664,7 +664,7 @@
         <v>13.20453159346258</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-7.275572600318291</v>
+        <v>-7.275572600318286</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.611781552761048</v>
+        <v>6.175403895790287</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.49736739212099</v>
+        <v>12.90416006634785</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.531433578209593</v>
+        <v>-5.832481843536161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.721372803191392</v>
+        <v>-8.084844886036775</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.717699700470996</v>
+        <v>5.658588453512787</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-15.93402920994757</v>
+        <v>-15.6027183206458</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1217206484570803</v>
+        <v>-0.342599516582959</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>9.927007932384592</v>
+        <v>9.836763806722153</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-10.20268982326113</v>
+        <v>-9.915944314809302</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.28431343868558</v>
+        <v>15.08675538405416</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.95901945994353</v>
+        <v>22.28222893699758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.684691701394927</v>
+        <v>3.520913103785611</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.2367045581971933</v>
+        <v>0.01008698772745012</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.83641735116878</v>
+        <v>13.90723075907909</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-8.364926420010987</v>
+        <v>-8.505134212785135</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.659767817178721</v>
+        <v>5.417898236602332</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.34700861385635</v>
+        <v>16.29359154748887</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-4.249977973384124</v>
+        <v>-4.249573267299326</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.2437139401016103</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3013967074564775</v>
+        <v>-0.3013967074564773</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.07131878603052834</v>
@@ -769,7 +769,7 @@
         <v>0.3705318836461527</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2041595796957274</v>
+        <v>-0.2041595796957272</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2051763521099048</v>
+        <v>0.1971194779778974</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3961567651945046</v>
+        <v>0.4056421556500997</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1716958298481583</v>
+        <v>-0.1839122275188185</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1844856616000091</v>
+        <v>-0.1925476358142676</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1317906515543148</v>
+        <v>0.1331639539333936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.375585586689714</v>
+        <v>-0.3737409873356978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.003050481153648069</v>
+        <v>-0.009026065920467395</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2724103053137338</v>
+        <v>0.2662292253955301</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.275221238520753</v>
+        <v>-0.2712889107848876</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5461477135807155</v>
+        <v>0.5500446484822431</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7959939763622333</v>
+        <v>0.8040800765539461</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1326186902848309</v>
+        <v>0.1232124836222034</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.006079822851419653</v>
+        <v>0.001786876320911512</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3589684203601509</v>
+        <v>0.3623768143200357</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2185674996645768</v>
+        <v>-0.224124798852226</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1650893660969636</v>
+        <v>0.1589895195050572</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4781283269547917</v>
+        <v>0.4752518893536126</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1238921220495047</v>
+        <v>-0.1242411688386771</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>19.71767033132773</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.3252330830368744</v>
+        <v>-0.3252330830368716</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>9.956783351203843</v>
@@ -878,7 +878,7 @@
         <v>16.10642176584882</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-3.053093450714151</v>
+        <v>-3.053093450714153</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>12.88628068213982</v>
+        <v>12.77076981775694</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.90953197737611</v>
+        <v>16.93762245304661</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.690557517966965</v>
+        <v>-2.651951619782036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.744105073585309</v>
+        <v>6.856297040884226</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>9.226304770614608</v>
+        <v>9.136056489837582</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.654905106308133</v>
+        <v>-8.719848070582875</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>10.60258652939373</v>
+        <v>10.86778080185669</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>14.0419734522921</v>
+        <v>13.94167121083837</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.923182374595112</v>
+        <v>-4.849726330557569</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.19030909036858</v>
+        <v>18.31298616490743</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.59558044520345</v>
+        <v>22.44543002907476</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.344937733071372</v>
+        <v>2.161983477049852</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.2001195221199</v>
+        <v>13.28419974482599</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.15465966849893</v>
+        <v>15.11458196471662</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.455761040988456</v>
+        <v>-3.30047408704921</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.86246693667912</v>
+        <v>15.00865208193927</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.12545809771519</v>
+        <v>18.10518834308621</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.05331186043718</v>
+        <v>-1.167025705291118</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>1.353772400965328</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.02232979679128946</v>
+        <v>-0.02232979679128927</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4429526346005598</v>
@@ -983,7 +983,7 @@
         <v>0.8760781859284431</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.166067212858107</v>
+        <v>-0.1660672128581072</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.8111101972610695</v>
+        <v>0.802418943777138</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1.067882536260421</v>
+        <v>1.063377358311743</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1744895712276714</v>
+        <v>-0.1668379731931191</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2818992675297571</v>
+        <v>0.2889768265989134</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3794533796463845</v>
+        <v>0.3793914647284101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3581121646504674</v>
+        <v>-0.3623174380369138</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5448115744913427</v>
+        <v>0.5558886636836121</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7247859414654768</v>
+        <v>0.7119190826473817</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2529418182918302</v>
+        <v>-0.247502528739027</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.364240367505258</v>
+        <v>1.375893695777834</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.693105873196731</v>
+        <v>1.709630179614406</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.173706376629659</v>
+        <v>0.162815763797204</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6300697427140696</v>
+        <v>0.6263296526016806</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7308059181318465</v>
+        <v>0.7169691584020595</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1695070756512467</v>
+        <v>-0.1658833075233788</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.859278422057635</v>
+        <v>0.8603917165816489</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.059797013560047</v>
+        <v>1.042386028330146</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.05993624668490601</v>
+        <v>-0.06835563035168933</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.810912738812094</v>
+        <v>1.633371846898016</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07705052754864349</v>
+        <v>0.4234051044201779</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.597195032098008</v>
+        <v>-6.3857906524245</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.775435045512456</v>
+        <v>-2.141033382656611</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.280081261606984</v>
+        <v>-2.031800120540901</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.33286746844777</v>
+        <v>-9.696789840440417</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.080026165601073</v>
+        <v>1.025547301725151</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2884813486458973</v>
+        <v>0.3325687976199279</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.078640585229304</v>
+        <v>-7.092452566395931</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.418428849866206</v>
+        <v>9.670031689856488</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.217171629281451</v>
+        <v>7.605032993406911</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.434272036090844</v>
+        <v>-0.9144855214707035</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.801262559635316</v>
+        <v>7.867159304374913</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.813524509231351</v>
+        <v>6.332316975416072</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.832941105788215</v>
+        <v>-2.73021960124214</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.999717753310549</v>
+        <v>7.234011725198479</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.236018666622116</v>
+        <v>6.10650029393951</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.663879571684138</v>
+        <v>-2.609254666414133</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.176933871810012</v>
+        <v>0.1700178899445852</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.003917251217880485</v>
+        <v>0.04109473517145265</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7598879275950298</v>
+        <v>-0.7451607374315844</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1259974923298477</v>
+        <v>-0.1490742171759245</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1629109808911163</v>
+        <v>-0.1537034783791167</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.684902440165052</v>
+        <v>-0.6782174086022584</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1024650835341642</v>
+        <v>0.09163646793577732</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.01987740169587792</v>
+        <v>0.02109838804354328</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6555529178086223</v>
+        <v>-0.6585289932245898</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.746441959740684</v>
+        <v>1.698537634126291</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.317299441123225</v>
+        <v>1.434151769661745</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2362885297927239</v>
+        <v>-0.1585673289236047</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7967679148158489</v>
+        <v>0.7996093763188061</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6976034641371999</v>
+        <v>0.6491890402187616</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2735916782156358</v>
+        <v>-0.2804909104398529</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8636131199856026</v>
+        <v>0.8702837036100879</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7681373692090232</v>
+        <v>0.7547577353150368</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3237009300878869</v>
+        <v>-0.3312103721025551</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>15.33316363553908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-3.719079688608459</v>
+        <v>-3.719079688608462</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.793912840578939</v>
@@ -1306,7 +1306,7 @@
         <v>11.59668699619479</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-7.349002457614221</v>
+        <v>-7.349002457614223</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.49434234276321</v>
+        <v>10.3770544155108</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>13.15311860928206</v>
+        <v>13.06681740312672</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.677276631060843</v>
+        <v>-5.796752368364823</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.382938924792136</v>
+        <v>1.414960281693025</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.674299265837897</v>
+        <v>5.56706144090418</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.90763093319842</v>
+        <v>-12.80252613386764</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.574706405766824</v>
+        <v>6.597692523280328</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>9.974521398949372</v>
+        <v>9.983306182619241</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.763860975543267</v>
+        <v>-8.683428201296861</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.82228648569258</v>
+        <v>14.61825372381195</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.3441330550998</v>
+        <v>17.55732829261109</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.82741277441541</v>
+        <v>-1.782760971491923</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.090688639855893</v>
+        <v>6.011495192404938</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.15272073834756</v>
+        <v>10.18215172231569</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-8.929930011724416</v>
+        <v>-9.018064162515534</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.632652697309057</v>
+        <v>9.758296280535813</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.97413717865467</v>
+        <v>13.12765219983866</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-6.008869911721842</v>
+        <v>-6.009175080450702</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.8480623647127296</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2056986796883867</v>
+        <v>-0.2056986796883868</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.136357486600922</v>
@@ -1402,7 +1402,7 @@
         <v>0.2849996234030207</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3928703249267162</v>
+        <v>-0.3928703249267161</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3528392332818875</v>
@@ -1411,7 +1411,7 @@
         <v>0.5038888472535301</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3193222666133594</v>
+        <v>-0.3193222666133596</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.5423382208676139</v>
+        <v>0.5486280187935672</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6782911000588089</v>
+        <v>0.6863226859189956</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2949096057461095</v>
+        <v>-0.3027525239467835</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04557024460476444</v>
+        <v>0.04878836310271939</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1948822811845922</v>
+        <v>0.1928758506542407</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4460532692594415</v>
+        <v>-0.4431657869719548</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2749126633974317</v>
+        <v>0.2779895162110159</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4198518241595652</v>
+        <v>0.4160151026094451</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3655365040051458</v>
+        <v>-0.3669262445371686</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8563225074905004</v>
+        <v>0.8728792901819173</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.008301307651842</v>
+        <v>1.037672805002486</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1053652947792989</v>
+        <v>-0.1027973527679061</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2278320981359923</v>
+        <v>0.2253651073645003</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3827695128647315</v>
+        <v>0.3820815933563664</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3350375980549228</v>
+        <v>-0.3389985575566283</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.430360981983025</v>
+        <v>0.4386322607046211</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5807688923441596</v>
+        <v>0.5869470965793582</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2683237839226811</v>
+        <v>-0.2712236988132178</v>
       </c>
     </row>
     <row r="28">
